--- a/Data/senior0102.xlsx
+++ b/Data/senior0102.xlsx
@@ -14,7 +14,7 @@
     <sheet name="법규위반별" sheetId="14" r:id="rId5"/>
     <sheet name="기상상태별" sheetId="24" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,9 +324,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -412,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +462,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -502,46 +509,60 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9072122132951628E-2"/>
+          <c:y val="1.4648210690132045E-2"/>
+          <c:w val="0.42386554485312361"/>
+          <c:h val="0.95199161665181753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -552,59 +573,534 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>법규위반별!$C$7:$C$21</c:f>
+              <c:f>법규위반별!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>12200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>2879</c:v>
                 </c:pt>
-                <c:pt idx="2">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>2075</c:v>
                 </c:pt>
-                <c:pt idx="3">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.9%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>1597</c:v>
                 </c:pt>
-                <c:pt idx="4">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>1456</c:v>
                 </c:pt>
-                <c:pt idx="5">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.7%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>856</c:v>
                 </c:pt>
-                <c:pt idx="6">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.2%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>742</c:v>
                 </c:pt>
-                <c:pt idx="7">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>475</c:v>
                 </c:pt>
-                <c:pt idx="8">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>403</c:v>
                 </c:pt>
-                <c:pt idx="9">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="10">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="11">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="12">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="13">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>법규위반별!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>법규위반별!$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:shape val="box"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -615,13 +1111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="cylinder"/>
-        <c:axId val="76177920"/>
-        <c:axId val="134767168"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:axId val="105840640"/>
+        <c:axId val="73495616"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="76177920"/>
+        <c:axId val="105840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134767168"/>
+        <c:crossAx val="73495616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +1133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="134767168"/>
+        <c:axId val="73495616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,18 +1144,40 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76177920"/>
+        <c:crossAx val="105840640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48741288587603937"/>
+          <c:y val="5.0317285276577015E-2"/>
+          <c:w val="5.2080039185008878E-2"/>
+          <c:h val="0.21829818409372087"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln w="12700" cmpd="sng"/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -785,12 +1301,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="104867328"/>
-        <c:axId val="76510272"/>
+        <c:axId val="105842688"/>
+        <c:axId val="73497344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="104867328"/>
+        <c:axId val="105842688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +1315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76510272"/>
+        <c:crossAx val="73497344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +1323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76510272"/>
+        <c:axId val="73497344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,14 +1334,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104867328"/>
+        <c:crossAx val="105842688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -844,16 +1359,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628772</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1165,7 +1680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3035,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AJ59" sqref="AJ59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3130,8 +3645,8 @@
       <c r="C7" s="3">
         <v>12200</v>
       </c>
-      <c r="D7" s="4">
-        <v>52.89858214456055</v>
+      <c r="D7" s="5">
+        <v>52.8985821445605</v>
       </c>
       <c r="E7" s="3">
         <v>505</v>
@@ -3156,7 +3671,7 @@
       <c r="C8" s="3">
         <v>2879</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>12.483198196245068</v>
       </c>
       <c r="E8" s="3">
@@ -3182,7 +3697,7 @@
       <c r="C9" s="3">
         <v>2075</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>8.9970949139314058</v>
       </c>
       <c r="E9" s="3">
@@ -3208,7 +3723,7 @@
       <c r="C10" s="3">
         <v>1597</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>6.9245111217100987</v>
       </c>
       <c r="E10" s="3">
@@ -3234,7 +3749,7 @@
       <c r="C11" s="3">
         <v>1456</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>6.3131422624983742</v>
       </c>
       <c r="E11" s="3">
@@ -3260,7 +3775,7 @@
       <c r="C12" s="3">
         <v>856</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>3.7115726488314618</v>
       </c>
       <c r="E12" s="3">
@@ -3286,7 +3801,7 @@
       <c r="C13" s="3">
         <v>742</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>3.2172744222347482</v>
       </c>
       <c r="E13" s="3">
@@ -3312,7 +3827,7 @@
       <c r="C14" s="3">
         <v>475</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>2.0595759441529724</v>
       </c>
       <c r="E14" s="3">
@@ -3338,7 +3853,7 @@
       <c r="C15" s="3">
         <v>403</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>1.747387590512943</v>
       </c>
       <c r="E15" s="3">
@@ -3364,7 +3879,7 @@
       <c r="C16" s="3">
         <v>233</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>1.0102761999739842</v>
       </c>
       <c r="E16" s="3">
@@ -3390,7 +3905,7 @@
       <c r="C17" s="3">
         <v>68</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>0.29484455621558342</v>
       </c>
       <c r="E17" s="3">
@@ -3416,7 +3931,7 @@
       <c r="C18" s="3">
         <v>34</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>0.14742227810779171</v>
       </c>
       <c r="E18" s="3">
@@ -3442,7 +3957,7 @@
       <c r="C19" s="3">
         <v>28</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>0.12140658197112258</v>
       </c>
       <c r="E19" s="3">
@@ -3468,7 +3983,7 @@
       <c r="C20" s="3">
         <v>11</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>4.7695442917226723E-2</v>
       </c>
       <c r="E20" s="3">
@@ -3494,8 +4009,8 @@
       <c r="C21" s="3">
         <v>6</v>
       </c>
-      <c r="D21" s="4">
-        <v>2.6015696136669122E-2</v>
+      <c r="D21" s="5">
+        <v>2.6015696136669101E-2</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -3511,6 +4026,123 @@
       </c>
       <c r="I21" s="4">
         <v>2.0718027643768313E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="16">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="17">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="E26" s="16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="E27" s="16">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="17">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4157,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
